--- a/test_data/other_sequences/study on uL02c.xlsx
+++ b/test_data/other_sequences/study on uL02c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (GaTech)\Programs\Score\test_data\other_sequences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621BA288-D435-4540-BBDA-9C29C8D8EB39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56F5B17-4D1E-49D0-A028-6552DBD97693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12795" activeTab="1" xr2:uid="{FDB25F3F-450E-4595-929A-7E1600E96AAE}"/>
   </bookViews>
@@ -7316,6 +7316,2424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Score_by_sss!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Score_by_sss!$I$2:$I$357</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="356"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Score_by_sss!$J$2:$J$357</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="356"/>
+                <c:pt idx="0">
+                  <c:v>4.2533420008509104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6862174686422202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99323932135318904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0369427871174499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81989808199277803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63269864889927396</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1376243708204901</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6364059868324801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0475441743687299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1073567542304299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1661479244123301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5254349904797599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.907568629547016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.54968796182986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61037619764053996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46006358284641402</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.77393009061652696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34439743967889802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5615141388010194E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.58047115003876804</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84123725523264203</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.749069006807911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47416177892021999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85889370810465304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3143119224112301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.94493955824232001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77750358364179395</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.751203107629002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.63836760760712496</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.7510859234476606E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4198219693257601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.82685019115111003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0279875893527399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81696574387473297</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6697997074976201</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76836692417048402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.60921854979900603</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59973427884581698</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.67215861428525803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.14878002982828401</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.11063529713358999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10704460516108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.106129816505505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.8146543085163302E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10751611346470701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10913203155767701</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.151529107131369</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.5981988189993197E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.146243365600431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10694885730565799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.123663673608711</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.73749937082217798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6468574543255401</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.31828685361982</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.3223040749546799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3089095742096202</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.2862648440624098</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1285363517190201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.9942562475500001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.09017146929214</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.7800031364644702</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1810473538194399</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.8506817888312199</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.59157035144433</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.105197085406907</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.12110375644424801</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.123926172477621</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.20962527978773501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.14588919655725699</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.1322184347122399</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5211898094339298</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7790223628478801</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.0298919763511099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.4335933719549101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2577123361799298</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.65998310671351</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.5622530554309502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.100118917830638</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.13493939645012501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.15334846294871601</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.105764341565954</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.8346007542664496E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1317010283448501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1298114791013301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92420068870453598</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.5049501317966301</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3178599185456599</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.12275208089933499</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.16199629570611501</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.119622944442057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.12760594870398201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.9862331577873896E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.100950025966576</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.122454551824416</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.13394864522037001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2430575754042399</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6448765837639701</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.35544544920316</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.9533729971001299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.87794966065569</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.87269608274097</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.94829267568646003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.12117293512131</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.101293009408924</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.5426519754328005E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.12219193265995899</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>9.6289451298853898E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.20512027053267201</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.17744892553988E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.25609015389165002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.9160924152394301</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.0817929401831099</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.14905814077833</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.87289089438641</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.15361020037821</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.0564392097357498</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.75733584974949</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.6593712953268098</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.6331067636933401</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4241434188026001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.9780730331471501</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.5337685920549302</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9916912761560299</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.31001993671316</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.68774945539711</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.6505402215300902</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.6830026666860798</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.10068376820126</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.2235422199163</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.1236296584912</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.98751228888784</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.4871046550418701</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.3369349257672498</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.7257176276284998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.71819486085037099</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.46099692815856</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5632844976365401</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.0508737956831796E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.13932358043214901</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.25213123359422601</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.9757445328812602</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.5201423261825502</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.2162838530093798</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.8778419881804</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.76484656031803E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.62135874824174</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.0032288582952602</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2.6200037504881202</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.6774862506294101</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.2199493658574401</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.7063298562051998</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.48997256924373</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.09766641795111</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.2388061165385098</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.82625311455035799</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2.3232147736794202</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.9672619289389099</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.88948872168421</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.31113121212085</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2.6990590870548701</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.1543905528990599</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.5560625000076</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.6437486487080699</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.15506473326843401</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8.4402842411968396E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.143656407884587</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.96990909036353601</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.2089715833332</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.58965833502609</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.6099557326210301</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.50775198917965</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.1098748758063102</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.5253424385705401</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.2533420008509104</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.6498727979978298</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.8363842226564899</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.81678543293221</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.9433299393085202</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>3.1358458284980499</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.43898951969861</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.52836950912778</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.1527821984384801</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.1328572641576304</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.0538900672078602</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.1848536382508801</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.5090985659574598</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.90096608330835704</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.2273199364434899</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2.4319166126717802</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.1883235091122799</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.2336651832116798</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1.5243017109740999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.3696382792448001</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.0248871603647598</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.4706079146743098</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2.3499443523708998</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.4792867183954499</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2.7223987176117999</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2.1144915203877801</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.8069819120222399</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.0751441398301704</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.1186370985889198</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.94086895111236</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1.9014468475189501</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.9070246259480399</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.1613362748717</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.8031736029677099</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.7529318195074701</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1.8542424737610601</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2.0391213329384299</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2.3534773093063501</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.0889368293583899</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>9.8880737044047401E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.159958180333272</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1.8814424494159001</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1.21256124031954</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1.9130999634160899</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2.4688180593162801</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1.1625266327497099</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2.7745349198724298</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2.3054456833466701</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>3.4595742387127202</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.68959347922531</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>3.6211676036083702</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.5708211431952099</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1.34320468444754</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2.8172147500614502</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.959797857254856</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2.3603658803105998</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1.42412917571402</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.89240516900343003</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1.02838117055881</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.5138952475374201</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2.6247718502806601</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.0809602640842897</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.3540140507837699</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.0687306235984901</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1.51103544756292</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.4029826446447302</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2.7981797689846402</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.1944370946009699</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1.5683529560957199</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2.5659511096444301</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2.1070131792495199</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.65892106846043497</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2.3347860949045698</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.7730068251637401</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1.8018676571119601</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.84707503175188</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2.4365590594020801</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.2012470808738298</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4.2533420008509104</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2.0549320022247102</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.73915245624498</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.41324737180837</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2.60894993808235</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1.40845786556582</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>9.96558705546641E-2</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>9.8711953855238094E-2</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.44749174665978803</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.71745652615966005</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.65017774100322601</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.67636267705131703</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.72675001215707702</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2.13105901474737</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.5622108303642299</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2.5533701908134301</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>3.88288127667502</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1.5262987471782601</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>3.3810939896890302</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>3.6596098653779801</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>3.97103609226652</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.5550684503451002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.9942783528220001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3.9672619289389099</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>3.9258740020671201</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>3.0296042643438499</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.7111626044500898</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>3.1737789393514899</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>4.2533420008509104</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.9545888565204601</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>4.32192809488736</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>4.1328572641576304</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>3.7730475861886399</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.9888226133131399</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.119466617589988</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.104837014201572</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>7.3377079730656505E-2</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.1278166574949999</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.0855040113158401</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1.48783821839311</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1.4829127508920199</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1.9697285144418599</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2.1091227950690601</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1.77229904791254</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.15091389305654901</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.14847072348396601</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.104659428664732</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.24710904064327999</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.26977856327194499</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.40590650685739499</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1.38051932181648</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2.5894766265218601</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1.7818507997661901</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2.4927538651113998</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>3.3665437219111798</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>9.6721407397210593E-2</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2.0205947521237801</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>3.3121309102895999</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1.1987137250225299</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2.3432391615757</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2.0171055733852201</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1.9982569101032399</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1.9185956968459801</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1.4004621166265701</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2.2022028429973499</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2.1530553610596499</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>3.18521472750056</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1.5359129538004299</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1.59506929991367</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2.4158518580527999</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1.44055247331237</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7.1672115307314294E-2</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>5.2266422471729898E-2</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.147262483434627</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>5.5255709814136099E-2</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.63404406584797302</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2.3154939093788398</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1.5579034644040699</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1.57088466019767</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.67791335374344097</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1.72952885895502</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1.0828472678919601</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1.1374030196052101</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.0804637362079701</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2.0386694258956402</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.74637208259335297</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.807735372486581</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.27274734425276398</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.282366855341317</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.201160025939457</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.13130369442828899</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.110258165220188</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>8.0503315468164693E-2</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.15833901097695599</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.18493286295697101</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.15277530462750999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9.7085529228781497E-2</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9.1751997758196396E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFDC-4A29-AED5-C66569C7519C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1839248447"/>
+        <c:axId val="1777560975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1839248447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1777560975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1777560975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1839248447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7357,6 +9775,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8415,6 +10873,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8460,16 +11421,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8491,6 +11452,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC65348F-2197-4DF7-9729-457DB9CB7C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12170,15 +15167,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B6E432-54E3-4625-8FA0-8B5C2B676F9A}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M5" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>10</v>
       </c>
@@ -12189,7 +15186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12214,8 +15211,14 @@
         <f>IF(B2="E",1,IF(C2="E",1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>4.2533420008509104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12240,8 +15243,14 @@
         <f t="shared" ref="G3:G66" si="2">IF(B3="E",1,IF(C3="E",1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>2.6862174686422202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12266,8 +15275,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.99323932135318904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>52</v>
       </c>
@@ -12292,8 +15307,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>1.0369427871174499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -12318,8 +15339,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.81989808199277803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>54</v>
       </c>
@@ -12344,8 +15371,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0.63269864889927396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>55</v>
       </c>
@@ -12370,8 +15403,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>1.1376243708204901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>56</v>
       </c>
@@ -12396,8 +15435,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>1.6364059868324801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>57</v>
       </c>
@@ -12422,8 +15467,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>1.0475441743687299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>58</v>
       </c>
@@ -12448,8 +15499,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1.1073567542304299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59</v>
       </c>
@@ -12474,8 +15531,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>1.1661479244123301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60</v>
       </c>
@@ -12500,8 +15563,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>1.5254349904797599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>61</v>
       </c>
@@ -12526,8 +15595,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>0.907568629547016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>62</v>
       </c>
@@ -12552,8 +15627,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>1.54968796182986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>63</v>
       </c>
@@ -12578,8 +15659,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0.61037619764053996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>64</v>
       </c>
@@ -12604,8 +15691,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0.46006358284641402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>70</v>
       </c>
@@ -12630,8 +15723,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0.77393009061652696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>71</v>
       </c>
@@ -12656,8 +15755,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>0.34439743967889802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>72</v>
       </c>
@@ -12682,8 +15787,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>9.5615141388010194E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>73</v>
       </c>
@@ -12708,8 +15819,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0.58047115003876804</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>74</v>
       </c>
@@ -12734,8 +15851,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>0.84123725523264203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>75</v>
       </c>
@@ -12760,8 +15883,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>0.749069006807911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>76</v>
       </c>
@@ -12786,8 +15915,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>0.47416177892021999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>77</v>
       </c>
@@ -12812,8 +15947,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>0.85889370810465304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>83</v>
       </c>
@@ -12838,8 +15979,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>1.3143119224112301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>84</v>
       </c>
@@ -12864,8 +16011,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>0.94493955824232001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>85</v>
       </c>
@@ -12890,8 +16043,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>0.77750358364179395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>86</v>
       </c>
@@ -12916,8 +16075,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29">
+        <v>0.751203107629002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>87</v>
       </c>
@@ -12942,8 +16107,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30">
+        <v>0.63836760760712496</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>96</v>
       </c>
@@ -12968,8 +16139,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31">
+        <v>7.7510859234476606E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>97</v>
       </c>
@@ -12994,8 +16171,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32">
+        <v>1.4198219693257601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>98</v>
       </c>
@@ -13020,8 +16203,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>0.82685019115111003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>99</v>
       </c>
@@ -13046,8 +16235,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>1.0279875893527399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>100</v>
       </c>
@@ -13072,8 +16267,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35">
+        <v>0.81696574387473297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>101</v>
       </c>
@@ -13098,8 +16299,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36">
+        <v>1.6697997074976201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>102</v>
       </c>
@@ -13124,8 +16331,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37">
+        <v>0.76836692417048402</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>111</v>
       </c>
@@ -13150,8 +16363,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38">
+        <v>0.60921854979900603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>112</v>
       </c>
@@ -13176,8 +16395,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39">
+        <v>0.59973427884581698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>113</v>
       </c>
@@ -13202,8 +16427,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40">
+        <v>0.67215861428525803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>114</v>
       </c>
@@ -13228,8 +16459,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>40</v>
+      </c>
+      <c r="J41">
+        <v>0.14878002982828401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>115</v>
       </c>
@@ -13254,8 +16491,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>0.11063529713358999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>116</v>
       </c>
@@ -13280,8 +16523,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43">
+        <v>0.10704460516108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>117</v>
       </c>
@@ -13306,8 +16555,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>43</v>
+      </c>
+      <c r="J44">
+        <v>0.106129816505505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>118</v>
       </c>
@@ -13332,8 +16587,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>44</v>
+      </c>
+      <c r="J45">
+        <v>5.8146543085163302E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>119</v>
       </c>
@@ -13358,8 +16619,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>45</v>
+      </c>
+      <c r="J46">
+        <v>0.10751611346470701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>120</v>
       </c>
@@ -13384,8 +16651,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>46</v>
+      </c>
+      <c r="J47">
+        <v>0.10913203155767701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>121</v>
       </c>
@@ -13410,8 +16683,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>47</v>
+      </c>
+      <c r="J48">
+        <v>0.151529107131369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>122</v>
       </c>
@@ -13436,8 +16715,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>48</v>
+      </c>
+      <c r="J49">
+        <v>8.5981988189993197E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>123</v>
       </c>
@@ -13462,8 +16747,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>49</v>
+      </c>
+      <c r="J50">
+        <v>0.146243365600431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>124</v>
       </c>
@@ -13488,8 +16779,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>0.10694885730565799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>125</v>
       </c>
@@ -13514,8 +16811,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>51</v>
+      </c>
+      <c r="J52">
+        <v>0.123663673608711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>126</v>
       </c>
@@ -13540,8 +16843,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>52</v>
+      </c>
+      <c r="J53">
+        <v>0.73749937082217798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>127</v>
       </c>
@@ -13566,8 +16875,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>53</v>
+      </c>
+      <c r="J54">
+        <v>1.6468574543255401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>128</v>
       </c>
@@ -13592,8 +16907,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>54</v>
+      </c>
+      <c r="J55">
+        <v>1.31828685361982</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>129</v>
       </c>
@@ -13618,8 +16939,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>55</v>
+      </c>
+      <c r="J56">
+        <v>1.3223040749546799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>130</v>
       </c>
@@ -13644,8 +16971,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>56</v>
+      </c>
+      <c r="J57">
+        <v>2.3089095742096202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>131</v>
       </c>
@@ -13670,8 +17003,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>2.2862648440624098</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>132</v>
       </c>
@@ -13696,8 +17035,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>58</v>
+      </c>
+      <c r="J59">
+        <v>2.1285363517190201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>133</v>
       </c>
@@ -13722,8 +17067,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>59</v>
+      </c>
+      <c r="J60">
+        <v>1.9942562475500001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>134</v>
       </c>
@@ -13748,8 +17099,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>60</v>
+      </c>
+      <c r="J61">
+        <v>1.09017146929214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>135</v>
       </c>
@@ -13774,8 +17131,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>61</v>
+      </c>
+      <c r="J62">
+        <v>3.7800031364644702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>136</v>
       </c>
@@ -13800,8 +17163,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>62</v>
+      </c>
+      <c r="J63">
+        <v>2.1810473538194399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>137</v>
       </c>
@@ -13826,8 +17195,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>63</v>
+      </c>
+      <c r="J64">
+        <v>1.8506817888312199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>141</v>
       </c>
@@ -13852,8 +17227,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>2.59157035144433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>142</v>
       </c>
@@ -13878,8 +17259,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>65</v>
+      </c>
+      <c r="J66">
+        <v>0.105197085406907</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>143</v>
       </c>
@@ -13904,8 +17291,14 @@
         <f t="shared" ref="G67:G130" si="5">IF(B67="E",1,IF(C67="E",1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>66</v>
+      </c>
+      <c r="J67">
+        <v>0.12110375644424801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>144</v>
       </c>
@@ -13930,8 +17323,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>0.123926172477621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>146</v>
       </c>
@@ -13956,8 +17355,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>0.20962527978773501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>147</v>
       </c>
@@ -13982,8 +17387,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>69</v>
+      </c>
+      <c r="J70">
+        <v>0.14588919655725699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>148</v>
       </c>
@@ -14008,8 +17419,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>70</v>
+      </c>
+      <c r="J71">
+        <v>1.1322184347122399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>149</v>
       </c>
@@ -14034,8 +17451,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>71</v>
+      </c>
+      <c r="J72">
+        <v>2.5211898094339298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>150</v>
       </c>
@@ -14060,8 +17483,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>72</v>
+      </c>
+      <c r="J73">
+        <v>1.7790223628478801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>151</v>
       </c>
@@ -14086,8 +17515,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>73</v>
+      </c>
+      <c r="J74">
+        <v>2.0298919763511099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>152</v>
       </c>
@@ -14112,8 +17547,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>74</v>
+      </c>
+      <c r="J75">
+        <v>2.4335933719549101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>153</v>
       </c>
@@ -14138,8 +17579,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>75</v>
+      </c>
+      <c r="J76">
+        <v>2.2577123361799298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>154</v>
       </c>
@@ -14164,8 +17611,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>76</v>
+      </c>
+      <c r="J77">
+        <v>2.65998310671351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>155</v>
       </c>
@@ -14190,8 +17643,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>77</v>
+      </c>
+      <c r="J78">
+        <v>2.5622530554309502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>156</v>
       </c>
@@ -14216,8 +17675,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>78</v>
+      </c>
+      <c r="J79">
+        <v>0.100118917830638</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>157</v>
       </c>
@@ -14242,8 +17707,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>79</v>
+      </c>
+      <c r="J80">
+        <v>0.13493939645012501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>158</v>
       </c>
@@ -14268,8 +17739,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>80</v>
+      </c>
+      <c r="J81">
+        <v>0.15334846294871601</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>159</v>
       </c>
@@ -14294,8 +17771,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>81</v>
+      </c>
+      <c r="J82">
+        <v>0.105764341565954</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>160</v>
       </c>
@@ -14320,8 +17803,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>82</v>
+      </c>
+      <c r="J83">
+        <v>9.8346007542664496E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>161</v>
       </c>
@@ -14346,8 +17835,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>83</v>
+      </c>
+      <c r="J84">
+        <v>2.1317010283448501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>162</v>
       </c>
@@ -14372,8 +17867,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>84</v>
+      </c>
+      <c r="J85">
+        <v>1.1298114791013301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>163</v>
       </c>
@@ -14398,8 +17899,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>85</v>
+      </c>
+      <c r="J86">
+        <v>0.92420068870453598</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>167</v>
       </c>
@@ -14424,8 +17931,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>86</v>
+      </c>
+      <c r="J87">
+        <v>2.5049501317966301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>168</v>
       </c>
@@ -14450,8 +17963,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>87</v>
+      </c>
+      <c r="J88">
+        <v>2.3178599185456599</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>169</v>
       </c>
@@ -14476,8 +17995,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>88</v>
+      </c>
+      <c r="J89">
+        <v>0.12275208089933499</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>170</v>
       </c>
@@ -14502,8 +18027,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>89</v>
+      </c>
+      <c r="J90">
+        <v>0.16199629570611501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>171</v>
       </c>
@@ -14528,8 +18059,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>90</v>
+      </c>
+      <c r="J91">
+        <v>0.119622944442057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>172</v>
       </c>
@@ -14554,8 +18091,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>91</v>
+      </c>
+      <c r="J92">
+        <v>0.12760594870398201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>173</v>
       </c>
@@ -14580,8 +18123,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>92</v>
+      </c>
+      <c r="J93">
+        <v>7.9862331577873896E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>174</v>
       </c>
@@ -14606,8 +18155,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>93</v>
+      </c>
+      <c r="J94">
+        <v>0.100950025966576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>175</v>
       </c>
@@ -14632,8 +18187,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>94</v>
+      </c>
+      <c r="J95">
+        <v>0.122454551824416</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>176</v>
       </c>
@@ -14658,8 +18219,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>95</v>
+      </c>
+      <c r="J96">
+        <v>0.13394864522037001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>177</v>
       </c>
@@ -14684,8 +18251,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>96</v>
+      </c>
+      <c r="J97">
+        <v>1.2430575754042399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>178</v>
       </c>
@@ -14710,8 +18283,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>97</v>
+      </c>
+      <c r="J98">
+        <v>1.6448765837639701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>179</v>
       </c>
@@ -14736,8 +18315,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>98</v>
+      </c>
+      <c r="J99">
+        <v>2.35544544920316</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>180</v>
       </c>
@@ -14762,8 +18347,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>99</v>
+      </c>
+      <c r="J100">
+        <v>1.9533729971001299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>181</v>
       </c>
@@ -14788,8 +18379,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>100</v>
+      </c>
+      <c r="J101">
+        <v>1.87794966065569</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>182</v>
       </c>
@@ -14814,8 +18411,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>101</v>
+      </c>
+      <c r="J102">
+        <v>1.87269608274097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>183</v>
       </c>
@@ -14840,8 +18443,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>102</v>
+      </c>
+      <c r="J103">
+        <v>0.94829267568646003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>184</v>
       </c>
@@ -14866,8 +18475,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>103</v>
+      </c>
+      <c r="J104">
+        <v>0.12117293512131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>185</v>
       </c>
@@ -14892,8 +18507,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>104</v>
+      </c>
+      <c r="J105">
+        <v>0.101293009408924</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>186</v>
       </c>
@@ -14918,8 +18539,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>105</v>
+      </c>
+      <c r="J106">
+        <v>6.5426519754328005E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>187</v>
       </c>
@@ -14944,8 +18571,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>106</v>
+      </c>
+      <c r="J107">
+        <v>0.12219193265995899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>188</v>
       </c>
@@ -14970,8 +18603,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>107</v>
+      </c>
+      <c r="J108">
+        <v>9.6289451298853898E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>189</v>
       </c>
@@ -14996,8 +18635,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>108</v>
+      </c>
+      <c r="J109">
+        <v>0.20512027053267201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>190</v>
       </c>
@@ -15022,8 +18667,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>109</v>
+      </c>
+      <c r="J110">
+        <v>9.17744892553988E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>191</v>
       </c>
@@ -15048,8 +18699,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>110</v>
+      </c>
+      <c r="J111">
+        <v>0.25609015389165002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>192</v>
       </c>
@@ -15074,8 +18731,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>111</v>
+      </c>
+      <c r="J112">
+        <v>1.9160924152394301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>193</v>
       </c>
@@ -15100,8 +18763,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>112</v>
+      </c>
+      <c r="J113">
+        <v>1.0817929401831099</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>194</v>
       </c>
@@ -15126,8 +18795,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>113</v>
+      </c>
+      <c r="J114">
+        <v>1.14905814077833</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>195</v>
       </c>
@@ -15152,8 +18827,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>114</v>
+      </c>
+      <c r="J115">
+        <v>1.87289089438641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>196</v>
       </c>
@@ -15178,8 +18859,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>115</v>
+      </c>
+      <c r="J116">
+        <v>1.15361020037821</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>197</v>
       </c>
@@ -15204,8 +18891,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>116</v>
+      </c>
+      <c r="J117">
+        <v>3.0564392097357498</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>198</v>
       </c>
@@ -15230,8 +18923,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>117</v>
+      </c>
+      <c r="J118">
+        <v>1.75733584974949</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>199</v>
       </c>
@@ -15256,8 +18955,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>118</v>
+      </c>
+      <c r="J119">
+        <v>3.6593712953268098</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>200</v>
       </c>
@@ -15282,8 +18987,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>119</v>
+      </c>
+      <c r="J120">
+        <v>1.6331067636933401</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>201</v>
       </c>
@@ -15308,8 +19019,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>120</v>
+      </c>
+      <c r="J121">
+        <v>1.4241434188026001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>202</v>
       </c>
@@ -15334,8 +19051,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>121</v>
+      </c>
+      <c r="J122">
+        <v>2.9780730331471501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>203</v>
       </c>
@@ -15360,8 +19083,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>122</v>
+      </c>
+      <c r="J123">
+        <v>2.5337685920549302</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>204</v>
       </c>
@@ -15386,8 +19115,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>123</v>
+      </c>
+      <c r="J124">
+        <v>2.9916912761560299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>205</v>
       </c>
@@ -15412,8 +19147,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>124</v>
+      </c>
+      <c r="J125">
+        <v>3.31001993671316</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>206</v>
       </c>
@@ -15438,8 +19179,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>125</v>
+      </c>
+      <c r="J126">
+        <v>3.68774945539711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>207</v>
       </c>
@@ -15464,8 +19211,14 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>126</v>
+      </c>
+      <c r="J127">
+        <v>2.6505402215300902</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>208</v>
       </c>
@@ -15490,8 +19243,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>127</v>
+      </c>
+      <c r="J128">
+        <v>3.6830026666860798</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>209</v>
       </c>
@@ -15516,8 +19275,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>128</v>
+      </c>
+      <c r="J129">
+        <v>2.10068376820126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>210</v>
       </c>
@@ -15542,8 +19307,14 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>129</v>
+      </c>
+      <c r="J130">
+        <v>3.2235422199163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>211</v>
       </c>
@@ -15568,8 +19339,14 @@
         <f t="shared" ref="G131:G194" si="8">IF(B131="E",1,IF(C131="E",1,0))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>130</v>
+      </c>
+      <c r="J131">
+        <v>2.1236296584912</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>212</v>
       </c>
@@ -15594,8 +19371,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>131</v>
+      </c>
+      <c r="J132">
+        <v>2.98751228888784</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>213</v>
       </c>
@@ -15620,8 +19403,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>132</v>
+      </c>
+      <c r="J133">
+        <v>3.4871046550418701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>214</v>
       </c>
@@ -15646,8 +19435,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>133</v>
+      </c>
+      <c r="J134">
+        <v>2.3369349257672498</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>215</v>
       </c>
@@ -15672,8 +19467,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>134</v>
+      </c>
+      <c r="J135">
+        <v>2.7257176276284998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>218</v>
       </c>
@@ -15698,8 +19499,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>135</v>
+      </c>
+      <c r="J136">
+        <v>0.71819486085037099</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>219</v>
       </c>
@@ -15724,8 +19531,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>136</v>
+      </c>
+      <c r="J137">
+        <v>2.46099692815856</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>220</v>
       </c>
@@ -15750,8 +19563,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>137</v>
+      </c>
+      <c r="J138">
+        <v>1.5632844976365401</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>221</v>
       </c>
@@ -15776,8 +19595,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>138</v>
+      </c>
+      <c r="J139">
+        <v>7.0508737956831796E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>222</v>
       </c>
@@ -15802,8 +19627,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>139</v>
+      </c>
+      <c r="J140">
+        <v>0.13932358043214901</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>223</v>
       </c>
@@ -15828,8 +19659,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>140</v>
+      </c>
+      <c r="J141">
+        <v>0.25213123359422601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>224</v>
       </c>
@@ -15854,8 +19691,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>141</v>
+      </c>
+      <c r="J142">
+        <v>2.9757445328812602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>225</v>
       </c>
@@ -15880,8 +19723,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>142</v>
+      </c>
+      <c r="J143">
+        <v>3.5201423261825502</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>226</v>
       </c>
@@ -15906,8 +19755,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>143</v>
+      </c>
+      <c r="J144">
+        <v>2.2162838530093798</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>227</v>
       </c>
@@ -15932,8 +19787,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>144</v>
+      </c>
+      <c r="J145">
+        <v>1.8778419881804</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>228</v>
       </c>
@@ -15958,8 +19819,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>145</v>
+      </c>
+      <c r="J146">
+        <v>5.76484656031803E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>229</v>
       </c>
@@ -15984,8 +19851,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>146</v>
+      </c>
+      <c r="J147">
+        <v>1.62135874824174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>230</v>
       </c>
@@ -16010,8 +19883,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>147</v>
+      </c>
+      <c r="J148">
+        <v>3.0032288582952602</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>231</v>
       </c>
@@ -16036,8 +19915,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>148</v>
+      </c>
+      <c r="J149">
+        <v>2.6200037504881202</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>232</v>
       </c>
@@ -16062,8 +19947,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>149</v>
+      </c>
+      <c r="J150">
+        <v>2.6774862506294101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>233</v>
       </c>
@@ -16088,8 +19979,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>150</v>
+      </c>
+      <c r="J151">
+        <v>3.2199493658574401</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>234</v>
       </c>
@@ -16114,8 +20011,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>151</v>
+      </c>
+      <c r="J152">
+        <v>2.7063298562051998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>235</v>
       </c>
@@ -16140,8 +20043,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>152</v>
+      </c>
+      <c r="J153">
+        <v>1.48997256924373</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>236</v>
       </c>
@@ -16166,8 +20075,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>153</v>
+      </c>
+      <c r="J154">
+        <v>3.09766641795111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>237</v>
       </c>
@@ -16192,8 +20107,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>154</v>
+      </c>
+      <c r="J155">
+        <v>2.2388061165385098</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>238</v>
       </c>
@@ -16218,8 +20139,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>155</v>
+      </c>
+      <c r="J156">
+        <v>0.82625311455035799</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>239</v>
       </c>
@@ -16244,8 +20171,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>156</v>
+      </c>
+      <c r="J157">
+        <v>2.3232147736794202</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>240</v>
       </c>
@@ -16270,8 +20203,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>157</v>
+      </c>
+      <c r="J158">
+        <v>3.9672619289389099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>241</v>
       </c>
@@ -16296,8 +20235,14 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>158</v>
+      </c>
+      <c r="J159">
+        <v>1.88948872168421</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>242</v>
       </c>
@@ -16322,8 +20267,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>159</v>
+      </c>
+      <c r="J160">
+        <v>1.31113121212085</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>243</v>
       </c>
@@ -16348,8 +20299,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>160</v>
+      </c>
+      <c r="J161">
+        <v>2.6990590870548701</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>244</v>
       </c>
@@ -16374,8 +20331,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>161</v>
+      </c>
+      <c r="J162">
+        <v>1.1543905528990599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>245</v>
       </c>
@@ -16400,8 +20363,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>162</v>
+      </c>
+      <c r="J163">
+        <v>1.5560625000076</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>246</v>
       </c>
@@ -16426,8 +20395,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>163</v>
+      </c>
+      <c r="J164">
+        <v>3.6437486487080699</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>247</v>
       </c>
@@ -16452,8 +20427,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>164</v>
+      </c>
+      <c r="J165">
+        <v>0.15506473326843401</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>248</v>
       </c>
@@ -16478,8 +20459,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>165</v>
+      </c>
+      <c r="J166">
+        <v>8.4402842411968396E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>249</v>
       </c>
@@ -16504,8 +20491,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>166</v>
+      </c>
+      <c r="J167">
+        <v>0.143656407884587</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>250</v>
       </c>
@@ -16530,8 +20523,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>167</v>
+      </c>
+      <c r="J168">
+        <v>0.96990909036353601</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>251</v>
       </c>
@@ -16556,8 +20555,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>168</v>
+      </c>
+      <c r="J169">
+        <v>1.2089715833332</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>252</v>
       </c>
@@ -16582,8 +20587,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>169</v>
+      </c>
+      <c r="J170">
+        <v>2.58965833502609</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>253</v>
       </c>
@@ -16608,8 +20619,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>170</v>
+      </c>
+      <c r="J171">
+        <v>1.6099557326210301</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>254</v>
       </c>
@@ -16634,8 +20651,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>171</v>
+      </c>
+      <c r="J172">
+        <v>2.50775198917965</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>255</v>
       </c>
@@ -16660,8 +20683,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>172</v>
+      </c>
+      <c r="J173">
+        <v>2.1098748758063102</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>256</v>
       </c>
@@ -16686,8 +20715,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>173</v>
+      </c>
+      <c r="J174">
+        <v>1.5253424385705401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>257</v>
       </c>
@@ -16712,8 +20747,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>174</v>
+      </c>
+      <c r="J175">
+        <v>4.2533420008509104</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>258</v>
       </c>
@@ -16738,8 +20779,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>175</v>
+      </c>
+      <c r="J176">
+        <v>3.6498727979978298</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>259</v>
       </c>
@@ -16764,8 +20811,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>176</v>
+      </c>
+      <c r="J177">
+        <v>1.8363842226564899</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>260</v>
       </c>
@@ -16790,8 +20843,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>177</v>
+      </c>
+      <c r="J178">
+        <v>2.81678543293221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>261</v>
       </c>
@@ -16816,8 +20875,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>178</v>
+      </c>
+      <c r="J179">
+        <v>2.9433299393085202</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>262</v>
       </c>
@@ -16842,8 +20907,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>179</v>
+      </c>
+      <c r="J180">
+        <v>3.1358458284980499</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>263</v>
       </c>
@@ -16868,8 +20939,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>180</v>
+      </c>
+      <c r="J181">
+        <v>1.43898951969861</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>271</v>
       </c>
@@ -16894,8 +20971,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>181</v>
+      </c>
+      <c r="J182">
+        <v>1.52836950912778</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>272</v>
       </c>
@@ -16920,8 +21003,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>182</v>
+      </c>
+      <c r="J183">
+        <v>3.1527821984384801</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>273</v>
       </c>
@@ -16946,8 +21035,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>183</v>
+      </c>
+      <c r="J184">
+        <v>4.1328572641576304</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>274</v>
       </c>
@@ -16972,8 +21067,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>184</v>
+      </c>
+      <c r="J185">
+        <v>2.0538900672078602</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>275</v>
       </c>
@@ -16998,8 +21099,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>185</v>
+      </c>
+      <c r="J186">
+        <v>4.1848536382508801</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>276</v>
       </c>
@@ -17024,8 +21131,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>186</v>
+      </c>
+      <c r="J187">
+        <v>2.5090985659574598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>277</v>
       </c>
@@ -17050,8 +21163,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>187</v>
+      </c>
+      <c r="J188">
+        <v>0.90096608330835704</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>278</v>
       </c>
@@ -17076,8 +21195,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>188</v>
+      </c>
+      <c r="J189">
+        <v>3.2273199364434899</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>279</v>
       </c>
@@ -17102,8 +21227,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>189</v>
+      </c>
+      <c r="J190">
+        <v>2.4319166126717802</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>280</v>
       </c>
@@ -17128,8 +21259,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>190</v>
+      </c>
+      <c r="J191">
+        <v>3.1883235091122799</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>281</v>
       </c>
@@ -17154,8 +21291,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>191</v>
+      </c>
+      <c r="J192">
+        <v>3.2336651832116798</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>282</v>
       </c>
@@ -17180,8 +21323,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>192</v>
+      </c>
+      <c r="J193">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>283</v>
       </c>
@@ -17206,8 +21355,14 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>193</v>
+      </c>
+      <c r="J194">
+        <v>1.5243017109740999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>284</v>
       </c>
@@ -17232,8 +21387,14 @@
         <f t="shared" ref="G195:G229" si="11">IF(B195="E",1,IF(C195="E",1,0))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>194</v>
+      </c>
+      <c r="J195">
+        <v>1.3696382792448001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>285</v>
       </c>
@@ -17258,8 +21419,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>195</v>
+      </c>
+      <c r="J196">
+        <v>3.0248871603647598</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>286</v>
       </c>
@@ -17284,8 +21451,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>196</v>
+      </c>
+      <c r="J197">
+        <v>3.4706079146743098</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>287</v>
       </c>
@@ -17310,8 +21483,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>197</v>
+      </c>
+      <c r="J198">
+        <v>2.3499443523708998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>288</v>
       </c>
@@ -17336,8 +21515,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>198</v>
+      </c>
+      <c r="J199">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>289</v>
       </c>
@@ -17362,8 +21547,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>199</v>
+      </c>
+      <c r="J200">
+        <v>3.4792867183954499</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>290</v>
       </c>
@@ -17388,8 +21579,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>200</v>
+      </c>
+      <c r="J201">
+        <v>2.7223987176117999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>291</v>
       </c>
@@ -17414,8 +21611,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>201</v>
+      </c>
+      <c r="J202">
+        <v>2.1144915203877801</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>292</v>
       </c>
@@ -17440,8 +21643,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>202</v>
+      </c>
+      <c r="J203">
+        <v>2.8069819120222399</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>297</v>
       </c>
@@ -17466,8 +21675,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>203</v>
+      </c>
+      <c r="J204">
+        <v>4.0751441398301704</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>298</v>
       </c>
@@ -17492,8 +21707,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>204</v>
+      </c>
+      <c r="J205">
+        <v>3.1186370985889198</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>299</v>
       </c>
@@ -17518,8 +21739,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>205</v>
+      </c>
+      <c r="J206">
+        <v>2.94086895111236</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>300</v>
       </c>
@@ -17544,8 +21771,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>206</v>
+      </c>
+      <c r="J207">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>301</v>
       </c>
@@ -17570,8 +21803,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>207</v>
+      </c>
+      <c r="J208">
+        <v>1.9014468475189501</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>309</v>
       </c>
@@ -17596,8 +21835,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>208</v>
+      </c>
+      <c r="J209">
+        <v>1.9070246259480399</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>310</v>
       </c>
@@ -17622,8 +21867,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>209</v>
+      </c>
+      <c r="J210">
+        <v>3.1613362748717</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>311</v>
       </c>
@@ -17648,8 +21899,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>210</v>
+      </c>
+      <c r="J211">
+        <v>1.8031736029677099</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>312</v>
       </c>
@@ -17674,8 +21931,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>211</v>
+      </c>
+      <c r="J212">
+        <v>2.7529318195074701</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>313</v>
       </c>
@@ -17700,8 +21963,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>212</v>
+      </c>
+      <c r="J213">
+        <v>1.8542424737610601</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>315</v>
       </c>
@@ -17726,8 +21995,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>213</v>
+      </c>
+      <c r="J214">
+        <v>2.0391213329384299</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>316</v>
       </c>
@@ -17752,8 +22027,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>214</v>
+      </c>
+      <c r="J215">
+        <v>2.3534773093063501</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>317</v>
       </c>
@@ -17778,8 +22059,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>215</v>
+      </c>
+      <c r="J216">
+        <v>2.0889368293583899</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>318</v>
       </c>
@@ -17804,8 +22091,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>216</v>
+      </c>
+      <c r="J217">
+        <v>9.8880737044047401E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>319</v>
       </c>
@@ -17830,8 +22123,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>217</v>
+      </c>
+      <c r="J218">
+        <v>0.159958180333272</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>320</v>
       </c>
@@ -17856,8 +22155,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>218</v>
+      </c>
+      <c r="J219">
+        <v>1.8814424494159001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>321</v>
       </c>
@@ -17882,8 +22187,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>219</v>
+      </c>
+      <c r="J220">
+        <v>1.21256124031954</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>322</v>
       </c>
@@ -17908,8 +22219,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>220</v>
+      </c>
+      <c r="J221">
+        <v>1.9130999634160899</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>323</v>
       </c>
@@ -17934,8 +22251,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>221</v>
+      </c>
+      <c r="J222">
+        <v>2.4688180593162801</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>324</v>
       </c>
@@ -17960,8 +22283,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>222</v>
+      </c>
+      <c r="J223">
+        <v>1.1625266327497099</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>325</v>
       </c>
@@ -17986,8 +22315,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>223</v>
+      </c>
+      <c r="J224">
+        <v>2.7745349198724298</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>326</v>
       </c>
@@ -18012,8 +22347,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>224</v>
+      </c>
+      <c r="J225">
+        <v>2.3054456833466701</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>327</v>
       </c>
@@ -18038,8 +22379,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>225</v>
+      </c>
+      <c r="J226">
+        <v>3.4595742387127202</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>328</v>
       </c>
@@ -18064,8 +22411,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>226</v>
+      </c>
+      <c r="J227">
+        <v>2.68959347922531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>334</v>
       </c>
@@ -18090,8 +22443,14 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>227</v>
+      </c>
+      <c r="J228">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>335</v>
       </c>
@@ -18115,6 +22474,1036 @@
       <c r="G229">
         <f t="shared" si="11"/>
         <v>0</v>
+      </c>
+      <c r="I229">
+        <v>228</v>
+      </c>
+      <c r="J229">
+        <v>3.6211676036083702</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>229</v>
+      </c>
+      <c r="J230">
+        <v>2.5708211431952099</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>230</v>
+      </c>
+      <c r="J231">
+        <v>1.34320468444754</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>231</v>
+      </c>
+      <c r="J232">
+        <v>2.8172147500614502</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>232</v>
+      </c>
+      <c r="J233">
+        <v>0.959797857254856</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>233</v>
+      </c>
+      <c r="J234">
+        <v>2.3603658803105998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>234</v>
+      </c>
+      <c r="J235">
+        <v>1.42412917571402</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>235</v>
+      </c>
+      <c r="J236">
+        <v>0.89240516900343003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>236</v>
+      </c>
+      <c r="J237">
+        <v>1.02838117055881</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>237</v>
+      </c>
+      <c r="J238">
+        <v>3.5138952475374201</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>238</v>
+      </c>
+      <c r="J239">
+        <v>2.6247718502806601</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>239</v>
+      </c>
+      <c r="J240">
+        <v>4.0809602640842897</v>
+      </c>
+    </row>
+    <row r="241" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>240</v>
+      </c>
+      <c r="J241">
+        <v>3.3540140507837699</v>
+      </c>
+    </row>
+    <row r="242" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>241</v>
+      </c>
+      <c r="J242">
+        <v>3.0687306235984901</v>
+      </c>
+    </row>
+    <row r="243" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>242</v>
+      </c>
+      <c r="J243">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="244" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>243</v>
+      </c>
+      <c r="J244">
+        <v>1.51103544756292</v>
+      </c>
+    </row>
+    <row r="245" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>244</v>
+      </c>
+      <c r="J245">
+        <v>3.4029826446447302</v>
+      </c>
+    </row>
+    <row r="246" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>245</v>
+      </c>
+      <c r="J246">
+        <v>2.7981797689846402</v>
+      </c>
+    </row>
+    <row r="247" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>246</v>
+      </c>
+      <c r="J247">
+        <v>3.1944370946009699</v>
+      </c>
+    </row>
+    <row r="248" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>247</v>
+      </c>
+      <c r="J248">
+        <v>1.5683529560957199</v>
+      </c>
+    </row>
+    <row r="249" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>248</v>
+      </c>
+      <c r="J249">
+        <v>2.5659511096444301</v>
+      </c>
+    </row>
+    <row r="250" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>249</v>
+      </c>
+      <c r="J250">
+        <v>2.1070131792495199</v>
+      </c>
+    </row>
+    <row r="251" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>250</v>
+      </c>
+      <c r="J251">
+        <v>0.65892106846043497</v>
+      </c>
+    </row>
+    <row r="252" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>251</v>
+      </c>
+      <c r="J252">
+        <v>2.3347860949045698</v>
+      </c>
+    </row>
+    <row r="253" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>252</v>
+      </c>
+      <c r="J253">
+        <v>1.7730068251637401</v>
+      </c>
+    </row>
+    <row r="254" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>253</v>
+      </c>
+      <c r="J254">
+        <v>1.8018676571119601</v>
+      </c>
+    </row>
+    <row r="255" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>254</v>
+      </c>
+      <c r="J255">
+        <v>1.84707503175188</v>
+      </c>
+    </row>
+    <row r="256" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>255</v>
+      </c>
+      <c r="J256">
+        <v>2.4365590594020801</v>
+      </c>
+    </row>
+    <row r="257" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>256</v>
+      </c>
+      <c r="J257">
+        <v>4.2012470808738298</v>
+      </c>
+    </row>
+    <row r="258" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>257</v>
+      </c>
+      <c r="J258">
+        <v>4.2533420008509104</v>
+      </c>
+    </row>
+    <row r="259" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>258</v>
+      </c>
+      <c r="J259">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="260" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>259</v>
+      </c>
+      <c r="J260">
+        <v>2.0549320022247102</v>
+      </c>
+    </row>
+    <row r="261" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>260</v>
+      </c>
+      <c r="J261">
+        <v>1.73915245624498</v>
+      </c>
+    </row>
+    <row r="262" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>261</v>
+      </c>
+      <c r="J262">
+        <v>2.41324737180837</v>
+      </c>
+    </row>
+    <row r="263" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>262</v>
+      </c>
+      <c r="J263">
+        <v>2.60894993808235</v>
+      </c>
+    </row>
+    <row r="264" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>263</v>
+      </c>
+      <c r="J264">
+        <v>1.40845786556582</v>
+      </c>
+    </row>
+    <row r="265" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>264</v>
+      </c>
+      <c r="J265">
+        <v>9.96558705546641E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>265</v>
+      </c>
+      <c r="J266">
+        <v>9.8711953855238094E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>266</v>
+      </c>
+      <c r="J267">
+        <v>0.44749174665978803</v>
+      </c>
+    </row>
+    <row r="268" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>267</v>
+      </c>
+      <c r="J268">
+        <v>0.71745652615966005</v>
+      </c>
+    </row>
+    <row r="269" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>268</v>
+      </c>
+      <c r="J269">
+        <v>0.65017774100322601</v>
+      </c>
+    </row>
+    <row r="270" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>269</v>
+      </c>
+      <c r="J270">
+        <v>0.67636267705131703</v>
+      </c>
+    </row>
+    <row r="271" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>270</v>
+      </c>
+      <c r="J271">
+        <v>0.72675001215707702</v>
+      </c>
+    </row>
+    <row r="272" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>271</v>
+      </c>
+      <c r="J272">
+        <v>2.13105901474737</v>
+      </c>
+    </row>
+    <row r="273" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>272</v>
+      </c>
+      <c r="J273">
+        <v>1.5622108303642299</v>
+      </c>
+    </row>
+    <row r="274" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>273</v>
+      </c>
+      <c r="J274">
+        <v>2.5533701908134301</v>
+      </c>
+    </row>
+    <row r="275" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>274</v>
+      </c>
+      <c r="J275">
+        <v>3.88288127667502</v>
+      </c>
+    </row>
+    <row r="276" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>275</v>
+      </c>
+      <c r="J276">
+        <v>1.5262987471782601</v>
+      </c>
+    </row>
+    <row r="277" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>276</v>
+      </c>
+      <c r="J277">
+        <v>3.3810939896890302</v>
+      </c>
+    </row>
+    <row r="278" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>277</v>
+      </c>
+      <c r="J278">
+        <v>3.6596098653779801</v>
+      </c>
+    </row>
+    <row r="279" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>278</v>
+      </c>
+      <c r="J279">
+        <v>3.97103609226652</v>
+      </c>
+    </row>
+    <row r="280" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I280">
+        <v>279</v>
+      </c>
+      <c r="J280">
+        <v>2.5550684503451002</v>
+      </c>
+    </row>
+    <row r="281" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I281">
+        <v>280</v>
+      </c>
+      <c r="J281">
+        <v>2.9942783528220001</v>
+      </c>
+    </row>
+    <row r="282" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I282">
+        <v>281</v>
+      </c>
+      <c r="J282">
+        <v>3.9672619289389099</v>
+      </c>
+    </row>
+    <row r="283" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I283">
+        <v>282</v>
+      </c>
+      <c r="J283">
+        <v>3.9258740020671201</v>
+      </c>
+    </row>
+    <row r="284" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I284">
+        <v>283</v>
+      </c>
+      <c r="J284">
+        <v>3.0296042643438499</v>
+      </c>
+    </row>
+    <row r="285" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I285">
+        <v>284</v>
+      </c>
+      <c r="J285">
+        <v>2.7111626044500898</v>
+      </c>
+    </row>
+    <row r="286" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I286">
+        <v>285</v>
+      </c>
+      <c r="J286">
+        <v>3.1737789393514899</v>
+      </c>
+    </row>
+    <row r="287" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>286</v>
+      </c>
+      <c r="J287">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="288" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>287</v>
+      </c>
+      <c r="J288">
+        <v>4.2533420008509104</v>
+      </c>
+    </row>
+    <row r="289" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>288</v>
+      </c>
+      <c r="J289">
+        <v>2.9545888565204601</v>
+      </c>
+    </row>
+    <row r="290" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>289</v>
+      </c>
+      <c r="J290">
+        <v>4.32192809488736</v>
+      </c>
+    </row>
+    <row r="291" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>290</v>
+      </c>
+      <c r="J291">
+        <v>4.1328572641576304</v>
+      </c>
+    </row>
+    <row r="292" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>291</v>
+      </c>
+      <c r="J292">
+        <v>3.7730475861886399</v>
+      </c>
+    </row>
+    <row r="293" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>292</v>
+      </c>
+      <c r="J293">
+        <v>1.9888226133131399</v>
+      </c>
+    </row>
+    <row r="294" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>293</v>
+      </c>
+      <c r="J294">
+        <v>0.119466617589988</v>
+      </c>
+    </row>
+    <row r="295" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>294</v>
+      </c>
+      <c r="J295">
+        <v>0.104837014201572</v>
+      </c>
+    </row>
+    <row r="296" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>295</v>
+      </c>
+      <c r="J296">
+        <v>7.3377079730656505E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>296</v>
+      </c>
+      <c r="J297">
+        <v>2.1278166574949999</v>
+      </c>
+    </row>
+    <row r="298" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>297</v>
+      </c>
+      <c r="J298">
+        <v>2.0855040113158401</v>
+      </c>
+    </row>
+    <row r="299" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>298</v>
+      </c>
+      <c r="J299">
+        <v>1.48783821839311</v>
+      </c>
+    </row>
+    <row r="300" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>299</v>
+      </c>
+      <c r="J300">
+        <v>1.4829127508920199</v>
+      </c>
+    </row>
+    <row r="301" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>300</v>
+      </c>
+      <c r="J301">
+        <v>1.9697285144418599</v>
+      </c>
+    </row>
+    <row r="302" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>301</v>
+      </c>
+      <c r="J302">
+        <v>2.1091227950690601</v>
+      </c>
+    </row>
+    <row r="303" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>302</v>
+      </c>
+      <c r="J303">
+        <v>1.77229904791254</v>
+      </c>
+    </row>
+    <row r="304" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>303</v>
+      </c>
+      <c r="J304">
+        <v>0.15091389305654901</v>
+      </c>
+    </row>
+    <row r="305" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>304</v>
+      </c>
+      <c r="J305">
+        <v>0.14847072348396601</v>
+      </c>
+    </row>
+    <row r="306" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>305</v>
+      </c>
+      <c r="J306">
+        <v>0.104659428664732</v>
+      </c>
+    </row>
+    <row r="307" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>306</v>
+      </c>
+      <c r="J307">
+        <v>0.24710904064327999</v>
+      </c>
+    </row>
+    <row r="308" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>307</v>
+      </c>
+      <c r="J308">
+        <v>0.26977856327194499</v>
+      </c>
+    </row>
+    <row r="309" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>308</v>
+      </c>
+      <c r="J309">
+        <v>0.40590650685739499</v>
+      </c>
+    </row>
+    <row r="310" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>309</v>
+      </c>
+      <c r="J310">
+        <v>1.38051932181648</v>
+      </c>
+    </row>
+    <row r="311" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>310</v>
+      </c>
+      <c r="J311">
+        <v>2.5894766265218601</v>
+      </c>
+    </row>
+    <row r="312" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>311</v>
+      </c>
+      <c r="J312">
+        <v>1.7818507997661901</v>
+      </c>
+    </row>
+    <row r="313" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>312</v>
+      </c>
+      <c r="J313">
+        <v>2.4927538651113998</v>
+      </c>
+    </row>
+    <row r="314" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>313</v>
+      </c>
+      <c r="J314">
+        <v>3.3665437219111798</v>
+      </c>
+    </row>
+    <row r="315" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>314</v>
+      </c>
+      <c r="J315">
+        <v>9.6721407397210593E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>315</v>
+      </c>
+      <c r="J316">
+        <v>2.0205947521237801</v>
+      </c>
+    </row>
+    <row r="317" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>316</v>
+      </c>
+      <c r="J317">
+        <v>3.3121309102895999</v>
+      </c>
+    </row>
+    <row r="318" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>317</v>
+      </c>
+      <c r="J318">
+        <v>1.1987137250225299</v>
+      </c>
+    </row>
+    <row r="319" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>318</v>
+      </c>
+      <c r="J319">
+        <v>2.3432391615757</v>
+      </c>
+    </row>
+    <row r="320" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>319</v>
+      </c>
+      <c r="J320">
+        <v>2.0171055733852201</v>
+      </c>
+    </row>
+    <row r="321" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>320</v>
+      </c>
+      <c r="J321">
+        <v>1.9982569101032399</v>
+      </c>
+    </row>
+    <row r="322" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>321</v>
+      </c>
+      <c r="J322">
+        <v>1.9185956968459801</v>
+      </c>
+    </row>
+    <row r="323" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>322</v>
+      </c>
+      <c r="J323">
+        <v>1.4004621166265701</v>
+      </c>
+    </row>
+    <row r="324" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>323</v>
+      </c>
+      <c r="J324">
+        <v>2.2022028429973499</v>
+      </c>
+    </row>
+    <row r="325" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>324</v>
+      </c>
+      <c r="J325">
+        <v>2.1530553610596499</v>
+      </c>
+    </row>
+    <row r="326" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>325</v>
+      </c>
+      <c r="J326">
+        <v>3.18521472750056</v>
+      </c>
+    </row>
+    <row r="327" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>326</v>
+      </c>
+      <c r="J327">
+        <v>1.5359129538004299</v>
+      </c>
+    </row>
+    <row r="328" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>327</v>
+      </c>
+      <c r="J328">
+        <v>1.59506929991367</v>
+      </c>
+    </row>
+    <row r="329" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>328</v>
+      </c>
+      <c r="J329">
+        <v>2.4158518580527999</v>
+      </c>
+    </row>
+    <row r="330" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>329</v>
+      </c>
+      <c r="J330">
+        <v>1.44055247331237</v>
+      </c>
+    </row>
+    <row r="331" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>330</v>
+      </c>
+      <c r="J331">
+        <v>7.1672115307314294E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>331</v>
+      </c>
+      <c r="J332">
+        <v>5.2266422471729898E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>332</v>
+      </c>
+      <c r="J333">
+        <v>0.147262483434627</v>
+      </c>
+    </row>
+    <row r="334" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>333</v>
+      </c>
+      <c r="J334">
+        <v>5.5255709814136099E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>334</v>
+      </c>
+      <c r="J335">
+        <v>0.63404406584797302</v>
+      </c>
+    </row>
+    <row r="336" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>335</v>
+      </c>
+      <c r="J336">
+        <v>2.3154939093788398</v>
+      </c>
+    </row>
+    <row r="337" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>336</v>
+      </c>
+      <c r="J337">
+        <v>1.5579034644040699</v>
+      </c>
+    </row>
+    <row r="338" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>337</v>
+      </c>
+      <c r="J338">
+        <v>1.57088466019767</v>
+      </c>
+    </row>
+    <row r="339" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <v>338</v>
+      </c>
+      <c r="J339">
+        <v>0.67791335374344097</v>
+      </c>
+    </row>
+    <row r="340" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <v>339</v>
+      </c>
+      <c r="J340">
+        <v>1.72952885895502</v>
+      </c>
+    </row>
+    <row r="341" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <v>340</v>
+      </c>
+      <c r="J341">
+        <v>1.0828472678919601</v>
+      </c>
+    </row>
+    <row r="342" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <v>341</v>
+      </c>
+      <c r="J342">
+        <v>1.1374030196052101</v>
+      </c>
+    </row>
+    <row r="343" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <v>342</v>
+      </c>
+      <c r="J343">
+        <v>1.0804637362079701</v>
+      </c>
+    </row>
+    <row r="344" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>343</v>
+      </c>
+      <c r="J344">
+        <v>2.0386694258956402</v>
+      </c>
+    </row>
+    <row r="345" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>344</v>
+      </c>
+      <c r="J345">
+        <v>0.74637208259335297</v>
+      </c>
+    </row>
+    <row r="346" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>345</v>
+      </c>
+      <c r="J346">
+        <v>0.807735372486581</v>
+      </c>
+    </row>
+    <row r="347" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <v>346</v>
+      </c>
+      <c r="J347">
+        <v>0.27274734425276398</v>
+      </c>
+    </row>
+    <row r="348" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>347</v>
+      </c>
+      <c r="J348">
+        <v>0.282366855341317</v>
+      </c>
+    </row>
+    <row r="349" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <v>348</v>
+      </c>
+      <c r="J349">
+        <v>0.201160025939457</v>
+      </c>
+    </row>
+    <row r="350" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>349</v>
+      </c>
+      <c r="J350">
+        <v>0.13130369442828899</v>
+      </c>
+    </row>
+    <row r="351" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <v>350</v>
+      </c>
+      <c r="J351">
+        <v>0.110258165220188</v>
+      </c>
+    </row>
+    <row r="352" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <v>351</v>
+      </c>
+      <c r="J352">
+        <v>8.0503315468164693E-2</v>
+      </c>
+    </row>
+    <row r="353" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <v>352</v>
+      </c>
+      <c r="J353">
+        <v>0.15833901097695599</v>
+      </c>
+    </row>
+    <row r="354" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <v>353</v>
+      </c>
+      <c r="J354">
+        <v>0.18493286295697101</v>
+      </c>
+    </row>
+    <row r="355" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>354</v>
+      </c>
+      <c r="J355">
+        <v>0.15277530462750999</v>
+      </c>
+    </row>
+    <row r="356" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>355</v>
+      </c>
+      <c r="J356">
+        <v>9.7085529228781497E-2</v>
+      </c>
+    </row>
+    <row r="357" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>356</v>
+      </c>
+      <c r="J357">
+        <v>9.1751997758196396E-2</v>
       </c>
     </row>
   </sheetData>
